--- a/test.xlsx
+++ b/test.xlsx
@@ -29,12 +29,27 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -44,6 +59,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007F00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000080FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00009900"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,13 +95,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,45 +489,556 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>flight1</t>
+          <t>flight 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>flight 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>flight 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>flight 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>flight 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>flight 6</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>12:16</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>21:14</t>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>01:08</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>16:23</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>20:04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>00:20</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>01:31</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>07:22</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>10:29</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>18:25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>07:44</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>20:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>07:18</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>08:07</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>00:39</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>01:05</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>01:01</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>05:54</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>01:50</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>22:26</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>00:09</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>07:34</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>09:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>01:47</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>06:03</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>12:58</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>07:13</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>09:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>00:01</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>20:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>20:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>16:48</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>04:01</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -38,12 +38,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
+        <fgColor rgb="007F00FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000080FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -53,7 +58,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -63,12 +68,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007F00FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000080FF"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,16 @@
           <t>flight 6</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>flight 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>flight 8</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,12 +536,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>03:09</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>18:35</t>
         </is>
       </c>
     </row>
@@ -541,34 +561,34 @@
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>01:08</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>06:27</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>08:04</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>16:23</t>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>05:37</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>10:07</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>16:55</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>20:04</t>
+          <t>23:56</t>
         </is>
       </c>
     </row>
@@ -578,34 +598,44 @@
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>00:20</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>01:31</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>07:22</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>10:29</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>18:25</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>02:53</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>09:53</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>20:41</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>23:14</t>
         </is>
       </c>
     </row>
@@ -615,24 +645,24 @@
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>07:44</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>13:02</t>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>03:28</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>09:20</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>17:07</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>20:52</t>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13:21</t>
         </is>
       </c>
     </row>
@@ -642,29 +672,34 @@
           <t>2023-10-14</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>07:18</t>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>00:07</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>08:07</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>17:28</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>18:03</t>
+          <t>03:42</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>21:16</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>23:54</t>
         </is>
       </c>
     </row>
@@ -676,32 +711,17 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>00:39</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>01:05</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>10:54</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>17:50</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>21:39</t>
+          <t>03:17</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>17:39</t>
         </is>
       </c>
     </row>
@@ -709,336 +729,6 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>01:01</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>05:54</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>08:52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13:51</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-10-17</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>09:15</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>18:33</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>19:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>01:50</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>22:26</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>11:19</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>22:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023-10-19</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>00:09</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>07:34</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>09:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-10-20</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>01:47</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>11:29</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>19:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>08:52</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>18:17</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>22:20</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>23:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="inlineStr">
-        <is>
-          <t>06:03</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>08:23</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>21:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>12:58</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2023-10-24</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>07:13</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>10:24</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>21:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>06:20</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>09:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-10-26</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>00:01</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>12:05</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>20:33</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>20:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023-10-27</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>17:19</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>20:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2023-10-28</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>16:48</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>19:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2023-10-29</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="inlineStr">
-        <is>
-          <t>04:01</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>16:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2023-10-30</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>08:47</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>19:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2023-10-31</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -38,12 +38,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00009900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="007F00FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -53,27 +73,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF8000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00009900"/>
+        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,21 +512,6 @@
           <t>flight 5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>flight 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>flight 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>flight 8</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -536,22 +521,17 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>03:09</t>
+          <t>17:44</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>13:35</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>18:35</t>
+          <t>21:41</t>
         </is>
       </c>
     </row>
@@ -561,36 +541,6 @@
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>05:37</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>10:07</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>13:10</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>16:55</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>18:59</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>23:56</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,44 +548,19 @@
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>02:53</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>08:57</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>09:53</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>10:51</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>19:22</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>20:41</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>23:14</t>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>00:49</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>10:52</t>
         </is>
       </c>
     </row>
@@ -647,22 +572,22 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>03:28</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>09:40</t>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>18:29</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>23:09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>16:53</t>
         </is>
       </c>
     </row>
@@ -672,34 +597,19 @@
           <t>2023-10-14</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>00:07</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>03:42</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>11:29</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>13:32</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>21:16</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>23:54</t>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>03:03</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>22:46</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>12:54</t>
         </is>
       </c>
     </row>
@@ -709,19 +619,29 @@
           <t>2023-10-15</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>03:17</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>03:15</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>10:59</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>17:39</t>
+          <t>23:51</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>20:47</t>
         </is>
       </c>
     </row>
@@ -729,6 +649,79 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>03:50</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>10:12</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>09:26</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -38,32 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF8000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00009900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007F00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,6 +54,26 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007F00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,216 +512,537 @@
           <t>flight 5</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>flight 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>flight 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>17:44</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>21:41</t>
+          <t>17:36</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>05:53</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>10:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>00:49</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>21:10</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>10:52</t>
+          <t>06:14</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>06:43</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>08:01</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>14:44</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>16:23</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18:13</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>20:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>05:35</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>18:29</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>23:09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>16:53</t>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>06:37</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>09:09</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>16:44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-10-14</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>03:03</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>22:46</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>12:54</t>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>10:23</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>21:10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-10-15</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>03:15</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>23:51</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>20:47</t>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>21:23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>03:50</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>18:56</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>21:56</t>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>05:43</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>21:09</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>21:57</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>10:12</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>18:26</t>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>07:53</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>22:10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>09:26</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>13:28</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>23:39</t>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>06:19</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>18:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>21:53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>07:03</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>07:34</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>05:33</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18:41</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>05:04</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>05:24</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>03:55</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>09:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-01-23</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>01:59</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>05:05</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>10:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>03:24</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -38,27 +38,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
+        <fgColor rgb="00FF8000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="007F00FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00009900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000080FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF8000"/>
+        <fgColor rgb="00FFCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -80,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -88,8 +78,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -455,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,21 +467,6 @@
           <t>flight 2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>flight 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>flight 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>flight 5</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -501,21 +474,6 @@
           <t>2023-10-10</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>00:04</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>05:23</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>16:26</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,29 +481,26 @@
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>05:09</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>20:50</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>11:43</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>20:24</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>21:21</t>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -38,12 +38,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF8000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00009900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="007F00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000080FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -78,6 +103,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +497,41 @@
           <t>flight 2</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>flight 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>flight 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>flight 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>flight 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>flight 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>flight 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>flight 9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,7 +548,17 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>00:41</t>
+          <t>05:16</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>17:18</t>
         </is>
       </c>
     </row>
@@ -493,14 +568,1237 @@
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>14:07</t>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>05:01</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>04:47</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>11:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>21:05</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>07:58</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>15:38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17:24</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>03:46</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>20:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>04:25</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>07:17</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>15:13</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>03:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>07:04</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>09:23</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>03:57</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>08:54</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>08:08</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>05:57</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>05:44</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15:53</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>01:21</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>15:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>00:23</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>04:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>09:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>09:19</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>01:32</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>02:26</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>10:19</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>02:39</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>18:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>03:15</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>05:43</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>03:27</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>04:37</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>05:29</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>06:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>01:43</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>03:01</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>00:31</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>03:38</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>05:22</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>18:23</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>23:39</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>07:17</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>14:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>00:01</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>03:50</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>05:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>00:24</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>04:26</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>00:46</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>01:20</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="inlineStr">
+        <is>
+          <t>04:39</t>
+        </is>
+      </c>
+      <c r="G38" s="9" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="H38" s="7" t="inlineStr">
+        <is>
+          <t>07:16</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>15:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>01:08</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>05:15</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>01:30</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>02:24</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="inlineStr">
+        <is>
+          <t>05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>07:34</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>04:04</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>04:13</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>05:36</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>16:21</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>03:11</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>09:12</t>
+        </is>
+      </c>
+      <c r="D43" s="8" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>03:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>04:20</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>16:56</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>20:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>02:54</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>03:43</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>02:24</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>04:27</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="inlineStr">
+        <is>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>03:25</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>01:34</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>03:47</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>04:35</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>07:53</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>09:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>01:14</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>20:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>08:14</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>04:13</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>16:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
         </is>
       </c>
     </row>
